--- a/biology/Botanique/Guarea_cedrata/Guarea_cedrata.xlsx
+++ b/biology/Botanique/Guarea_cedrata/Guarea_cedrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guarea cedrata, aussi connu sous le nom de bossé, est une espèce de plantes du genre Guarea et de la famille des Meliaceae. C'est un grand arbre des forêts tropicales d'Afrique qui produit un bois assez recherché.
 </t>
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence UICN : espèce Guarea cedrata
 Sur les autres projets Wikimedia :
